--- a/Analyse/P4_01_analyse.xlsx
+++ b/Analyse/P4_01_analyse.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Audit et recommandations" sheetId="7" r:id="rId1"/>
     <sheet name="checklist  accessibilité" sheetId="5" r:id="rId2"/>
     <sheet name="check list SEO" sheetId="8" r:id="rId3"/>
-    <sheet name="Analyse mot clés" sheetId="2" r:id="rId4"/>
+    <sheet name="Analyse mot clés" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -65,7 +65,7 @@
     <t>Le contraste des couleurs DOIT être conforme aux exigences du niveau AA du WCAG 2.1</t>
   </si>
   <si>
-    <t>correction du contraste grace à l'outil wave</t>
+    <t>Correction du contraste grâce à l'outil Wave</t>
   </si>
   <si>
     <t>ok</t>
@@ -80,7 +80,7 @@
     <t>Ajouter une autre mise en forme en plus de la couleur sur les liens et s'assurer qu'ils sont bien focusables</t>
   </si>
   <si>
-    <t>ajout d'une bordure au survol sur les liens de navigtion</t>
+    <t>Ajout d'une bordure au survol sur les liens de navigation</t>
   </si>
   <si>
     <t>Détection de mots clés de très petite taille avec une police de la même couleur que le fond</t>
@@ -186,7 +186,7 @@
     </r>
   </si>
   <si>
-    <t>Mettre à jour les balises alt pour donner une description pertinente aux images</t>
+    <t>Mettre à jour les attributs "alt" des balises &lt;img&gt; pour donner une description pertinente aux images</t>
   </si>
   <si>
     <t>Les citations contenues dans la page web sont sous forme d'image de texte</t>
@@ -198,7 +198,7 @@
     <t>Les images de texte DOIVENT être évitées.</t>
   </si>
   <si>
-    <t>remplacer les textes sous forme d'image par des textes "bruts"</t>
+    <t>Remplacer les images de texte par des textes "bruts"</t>
   </si>
   <si>
     <t xml:space="preserve">SEO ON-PAGE </t>
@@ -225,7 +225,7 @@
     <t>Afin de mieux localiser le site, toujours indiquer la langue</t>
   </si>
   <si>
-    <t>ajout de l'attibut lang="fr"</t>
+    <t>Ajouter l'attibut lang="fr"</t>
   </si>
   <si>
     <t>Amélioration de la vitesse du site</t>
@@ -240,7 +240,7 @@
     <t>Optimiser la taille des images en fonction de leur conteneur</t>
   </si>
   <si>
-    <t>redimention des images du portofolio à 270 px</t>
+    <t>Redimensionner lees images du portofolio à 270 px</t>
   </si>
   <si>
     <t>Les images ne sont pas compressées</t>
@@ -252,7 +252,7 @@
     <t>Toujours compresser les images afin d'alléger leur poids</t>
   </si>
   <si>
-    <t>compresser les images, optimiser les formats des images (ex: logo en svg)</t>
+    <t>Compresser les images, optimiser les formats des images (ex: logo en svg)</t>
   </si>
   <si>
     <t>Les codes de sont pas minifier</t>
@@ -264,7 +264,7 @@
     <t>Minifier et purifier le code css et javascript afin de retirer les élémnt non utiles et allèger le poid des pages</t>
   </si>
   <si>
-    <t xml:space="preserve">minifier et purifier le code css et javascript </t>
+    <t xml:space="preserve">Minifier et purifier le code css et javascript </t>
   </si>
   <si>
     <t>Les attributs defer ou async ne sont pas définis sur les scripts</t>
@@ -288,7 +288,7 @@
     <t>Pour un chargement plus rapide, il faut une politique de mise en cache navigateur efficace</t>
   </si>
   <si>
-    <t>paramétrer le mise en cache via le fichier .htaccess (ex:1 mois de mise en cache sur les images)</t>
+    <t>Paramétrer le mise en cache via le fichier .htaccess (ex:1 mois de mise en cache sur les images)</t>
   </si>
   <si>
     <t>pas possible de modifier la politique mise en de cache sur github pages (10min par défaut)</t>
@@ -306,7 +306,7 @@
     <t>S'assurer que le site soit entièrement responsive ou posséde une version mobile</t>
   </si>
   <si>
-    <t>corriger les bugs de la version responsive</t>
+    <t>Corriger les bugs de la version responsive</t>
   </si>
   <si>
     <t>*</t>
@@ -321,7 +321,7 @@
     <t>Toujours renseigner la balise meta robots avec les attributs "follow" ou "not follow"</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajout de balises meta robots "follow" dans la partie "head" 
+    <t xml:space="preserve">Ajouter de balises meta robots "follow" dans la partie "head" 
 </t>
   </si>
   <si>
@@ -335,7 +335,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-Correction des titres et de leur ordre d'apparition: un seul H1, suivi de plusieurs h2 puis suivi de H3 
+Corriger les titres et de leur ordre d'apparition: un seul H1, suivi de plusieurs h2 puis suivi de H3 
 </t>
   </si>
   <si>
@@ -345,7 +345,7 @@
     <t xml:space="preserve">Les liens depuis la page d'accueil ne sont pas pertinents </t>
   </si>
   <si>
-    <t xml:space="preserve">Les liens vers les pages d'annuaires ne sont pas pertinents et n'apportent rien en termes de SEO. De plus, de nombreux liens peuvent être considérés comme suspicieux par le navigateur. Les partenaires ne sont pas en lien avec le web marketing. </t>
+    <t xml:space="preserve">Les liens vers les pages d'annuaires ne sont pas pertinents et n'apportent rien en SEO. De plus, de nombreux liens peuvent être considérés comme suspicieux par le navigateur. Les partenaires ne sont pas en lien avec le web marketing. </t>
   </si>
   <si>
     <t xml:space="preserve">Un nombre de liens trop nombreux sur une page peut être assimilé à du spam. Il y a donc un risque de blacklistage. Il vaut mieux limiter le nombre de liens à 10 maximum par page et prioriser les liens pertinents.
@@ -367,7 +367,7 @@
     <t>Intégrer le mot-clé principal de la page dans le h1</t>
   </si>
   <si>
-    <t>Il y a peu de mots-clés dans le contenu de la page et les mots-clés ne sont pas toujours pertinents</t>
+    <t>Il y a peu de mots-clés dans le contenu de la page et ils ne sont pas toujours pertinents</t>
   </si>
   <si>
     <t>L'utilisation de procédés black hat associés à des mots clés pas assez pertinents (ex: utiliation du mot clé Paris alors que l'entreprise se situe à Lyon) vont pénaliser le SEO</t>
@@ -1124,8 +1124,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,16 +1149,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,57 +1173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,16 +1195,65 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,7 +1342,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,19 +1444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,25 +1480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,91 +1504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,9 +1588,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1606,6 +1608,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,15 +1669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1657,177 +1683,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2197,8 +2197,8 @@
   <sheetPr/>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2260,7 +2260,7 @@
       <c r="Y1" s="39"/>
       <c r="Z1" s="39"/>
     </row>
-    <row r="2" customFormat="1" ht="60" spans="1:9">
+    <row r="2" customFormat="1" ht="45" spans="1:9">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="60" spans="1:9">
+    <row r="4" customFormat="1" ht="45.75" spans="1:9">
       <c r="A4" s="29"/>
       <c r="B4" s="11" t="s">
         <v>10</v>
@@ -2370,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="90" spans="1:9">
+    <row r="6" customFormat="1" ht="60" spans="1:9">
       <c r="A6" s="29"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
@@ -2534,7 +2534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="90" spans="1:9">
+    <row r="12" customFormat="1" ht="60" spans="1:9">
       <c r="A12" s="33"/>
       <c r="B12" s="11" t="s">
         <v>32</v>
@@ -2588,7 +2588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="45" spans="1:9">
+    <row r="14" customFormat="1" ht="30" spans="1:9">
       <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>32</v>
@@ -2669,7 +2669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="135" spans="1:9">
+    <row r="17" customFormat="1" ht="120" spans="1:9">
       <c r="A17" s="37" t="s">
         <v>77</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="60" spans="1:9">
+    <row r="18" customFormat="1" ht="45" spans="1:9">
       <c r="A18" s="37"/>
       <c r="B18" s="11" t="s">
         <v>32</v>
@@ -2725,7 +2725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="75" spans="1:9">
+    <row r="19" customFormat="1" ht="60" spans="1:9">
       <c r="A19" s="37"/>
       <c r="B19" s="11" t="s">
         <v>32</v>
@@ -3519,7 +3519,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="1"/>
